--- a/MISLAND/data/summary_table_restoration.xlsx
+++ b/MISLAND/data/summary_table_restoration.xlsx
@@ -1,39 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azvol\Code\LandDegradation\trends.earth\LDMP\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\trends.earth\MISLAND\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573EFAA7-7166-42F0-BE41-1E0DC0CC481D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEA381E-00C6-4D4D-87CA-D0268F5FA3BE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Restoration Biomass Change" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>The boundaries, names, and designations used in this report do not imply official endorsement or acceptance by Conservation International Foundation, or its partner organizations and contributors.  This report is available under the terms of Creative Commons Attribution 4.0 International License (CC BY 4.0).</t>
-  </si>
-  <si>
-    <t>For more information on Trends.Earth, see http://trends.earth, or contact the team at trends.earth@conservation.org.</t>
   </si>
   <si>
     <t>Total area of polygon:</t>
@@ -121,9 +110,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Trends.Earth potential carbon removals from restoration summary table</t>
-  </si>
-  <si>
     <t>Summary of chosen area of interest</t>
   </si>
   <si>
@@ -158,14 +144,17 @@
       <t>e)</t>
     </r>
   </si>
+  <si>
+    <t>Misland potential carbon removals from restoration summary table</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -300,7 +289,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -323,7 +312,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -728,114 +717,114 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="2" width="27.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="32" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:4" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
     </row>
-    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
     </row>
-    <row r="5" spans="1:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26"/>
       <c r="B5" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="25"/>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="22">
         <v>0</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="29"/>
     </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="22">
         <v>15</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="29"/>
     </row>
-    <row r="8" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="22">
         <v>0</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="29"/>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:4" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
     </row>
-    <row r="11" spans="1:4" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:4" s="9" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>10</v>
-      </c>
       <c r="C12" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="18">
         <v>0</v>
@@ -844,47 +833,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
     </row>
-    <row r="16" spans="1:4" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
     </row>
-    <row r="17" spans="1:3" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>1</v>
-      </c>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
